--- a/data/final_data2.xlsx
+++ b/data/final_data2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Drive\CMIS 4†26 - Project\Data Set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Drive\CMIS 4†26 - Project\Data Set\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC972E41-7DBF-4505-A7F0-911B87BB13C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9860EEB-A1CB-4CF8-8031-C20839594F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="364">
   <si>
     <t>Type of Degree</t>
   </si>
@@ -446,9 +446,6 @@
     <t>Associate Data Engineer</t>
   </si>
   <si>
-    <t>Executive- Sales</t>
-  </si>
-  <si>
     <t>Technical Executive</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
     <t>Associate web engineer</t>
   </si>
   <si>
-    <t>UI/UX Engineer -Intern</t>
-  </si>
-  <si>
     <t>Excellent</t>
   </si>
   <si>
@@ -474,9 +468,6 @@
   </si>
   <si>
     <t>Deen's list academic year 2018/2019</t>
-  </si>
-  <si>
-    <t>Intern- Infrastructure Operations</t>
   </si>
   <si>
     <t>qualified</t>
@@ -608,9 +599,6 @@
     <t>Electronic Engineer</t>
   </si>
   <si>
-    <t>Producion Executive</t>
-  </si>
-  <si>
     <t>software developer</t>
   </si>
   <si>
@@ -650,9 +638,6 @@
     <t xml:space="preserve">In plant trainee </t>
   </si>
   <si>
-    <t>Accountanta executive</t>
-  </si>
-  <si>
     <t>Associate Electronics Engineer</t>
   </si>
   <si>
@@ -660,9 +645,6 @@
   </si>
   <si>
     <t>Instructor</t>
-  </si>
-  <si>
-    <t>Planning - Executive</t>
   </si>
   <si>
     <t>Test Development Engineer</t>
@@ -692,22 +674,13 @@
     <t>Associate Software Engineer</t>
   </si>
   <si>
-    <t>Data Analysists</t>
-  </si>
-  <si>
     <t>Business Analyst</t>
   </si>
   <si>
     <t>Sales &amp; Administration Support</t>
   </si>
   <si>
-    <t xml:space="preserve">Planning cordinator </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales &amp; Admin Support </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excutive </t>
   </si>
   <si>
     <t>Human Resources Executive</t>
@@ -720,9 +693,6 @@
   </si>
   <si>
     <t>Merchandising Assistant</t>
-  </si>
-  <si>
-    <t>Temporary Demenstration</t>
   </si>
   <si>
     <t xml:space="preserve">Customer Engagement Specialist </t>
@@ -749,13 +719,7 @@
     <t xml:space="preserve">Staff Assistant Gr-(II) </t>
   </si>
   <si>
-    <t>Executive - Process Improvements</t>
-  </si>
-  <si>
     <t>Project Executive</t>
-  </si>
-  <si>
-    <t>Project Cordinator &amp; Site Engineer</t>
   </si>
   <si>
     <t>Junior Software Developer</t>
@@ -767,16 +731,10 @@
     <t>Inspector of Customs</t>
   </si>
   <si>
-    <t>Executive - work Study</t>
-  </si>
-  <si>
     <t>Odoo Development</t>
   </si>
   <si>
     <t>software Engineer</t>
-  </si>
-  <si>
-    <t>Executive - IT</t>
   </si>
   <si>
     <t>Assistant Supervisor</t>
@@ -786,9 +744,6 @@
   </si>
   <si>
     <t>Digital Marketing Analyst</t>
-  </si>
-  <si>
-    <t>Executive - Bulk Merchandiser</t>
   </si>
   <si>
     <t>Executive He &amp;Finance</t>
@@ -809,9 +764,6 @@
     <t>Temparary Tuter</t>
   </si>
   <si>
-    <t>Junior Executive -process</t>
-  </si>
-  <si>
     <t xml:space="preserve">Consultant </t>
   </si>
   <si>
@@ -830,16 +782,10 @@
     <t>Staff Officer</t>
   </si>
   <si>
-    <t>Supply chain - Analyst</t>
-  </si>
-  <si>
     <t>Lab Assistant</t>
   </si>
   <si>
     <t>Sales and administration</t>
-  </si>
-  <si>
-    <t>Executive- QA</t>
   </si>
   <si>
     <t>Tempoary Tuter</t>
@@ -863,9 +809,6 @@
     <t>Executive Project Coordinator</t>
   </si>
   <si>
-    <t>Merchandiser-bulk</t>
-  </si>
-  <si>
     <t>Puchasing Executive</t>
   </si>
   <si>
@@ -873,9 +816,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Executive</t>
-  </si>
-  <si>
-    <t>Executive-Industrial Engineering</t>
   </si>
   <si>
     <t>Operations Analyst</t>
@@ -894,9 +834,6 @@
   </si>
   <si>
     <t>Assistant manager</t>
-  </si>
-  <si>
-    <t>Production Control Unit-Executive</t>
   </si>
   <si>
     <t>Opertions Analyst</t>
@@ -926,9 +863,6 @@
     <t xml:space="preserve">QA engineer </t>
   </si>
   <si>
-    <t>Executive-Human Resourse Development</t>
-  </si>
-  <si>
     <t xml:space="preserve">Associte Software Engineer </t>
   </si>
   <si>
@@ -938,16 +872,10 @@
     <t>Biomedical Service Technical</t>
   </si>
   <si>
-    <t>Executive-Supply chain</t>
-  </si>
-  <si>
     <t xml:space="preserve">System Coordinator </t>
   </si>
   <si>
     <t xml:space="preserve">Engineering Assistant </t>
-  </si>
-  <si>
-    <t>Data Analysis</t>
   </si>
   <si>
     <t>Assocoate Software Engineer</t>
@@ -959,9 +887,6 @@
     <t>Regional Accuracy Analyst</t>
   </si>
   <si>
-    <t>Executive-IE</t>
-  </si>
-  <si>
     <t>Assocrate Web Engineer</t>
   </si>
   <si>
@@ -969,9 +894,6 @@
   </si>
   <si>
     <t>Trainee SEO Specialist</t>
-  </si>
-  <si>
-    <t>Junior Executive-Advance Analytics &amp; Data Translator</t>
   </si>
   <si>
     <t>Engineer Executive</t>
@@ -995,9 +917,6 @@
     <t>Price Analyst</t>
   </si>
   <si>
-    <t>Planning -Executive</t>
-  </si>
-  <si>
     <t>Intern Business analyst</t>
   </si>
   <si>
@@ -1011,9 +930,6 @@
   </si>
   <si>
     <t>Merchandising &amp; planning</t>
-  </si>
-  <si>
-    <t>intern-Quality Engineering</t>
   </si>
   <si>
     <t xml:space="preserve">Quality Assurance Engineer (Associate) </t>
@@ -1035,9 +951,6 @@
   </si>
   <si>
     <t xml:space="preserve">HR officer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">data engineer </t>
   </si>
   <si>
     <t>Material Analyst</t>
@@ -1082,12 +995,6 @@
     <t>business application support</t>
   </si>
   <si>
-    <t xml:space="preserve">business analyst -Intern </t>
-  </si>
-  <si>
-    <t xml:space="preserve">data engineer(Intern) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Research assistant </t>
   </si>
   <si>
@@ -1130,9 +1037,6 @@
     <t>associate application support engineer</t>
   </si>
   <si>
-    <t>Coordinator (Assistant Production)</t>
-  </si>
-  <si>
     <t>Coordinator</t>
   </si>
   <si>
@@ -1149,6 +1053,81 @@
   </si>
   <si>
     <t>Job title</t>
+  </si>
+  <si>
+    <t>intern data engineer</t>
+  </si>
+  <si>
+    <t>Executive Process Improvements</t>
+  </si>
+  <si>
+    <t>Executive work Study</t>
+  </si>
+  <si>
+    <t>Executive IT</t>
+  </si>
+  <si>
+    <t>Executive Bulk Merchandiser</t>
+  </si>
+  <si>
+    <t>Executive QA</t>
+  </si>
+  <si>
+    <t>Executive Industrial Engineering</t>
+  </si>
+  <si>
+    <t>Executive Human Resourse Development</t>
+  </si>
+  <si>
+    <t>Executive Supply chain</t>
+  </si>
+  <si>
+    <t>Executive Sales</t>
+  </si>
+  <si>
+    <t>Executive IE</t>
+  </si>
+  <si>
+    <t>Intern Infrastructure Operations</t>
+  </si>
+  <si>
+    <t>intern Quality Engineering</t>
+  </si>
+  <si>
+    <t>Junior Executive process</t>
+  </si>
+  <si>
+    <t>Supply chain Analyst</t>
+  </si>
+  <si>
+    <t>Merchandiser bulk</t>
+  </si>
+  <si>
+    <t>Production Control Unit Executive</t>
+  </si>
+  <si>
+    <t>Junior Executive Advance Analytics &amp; Data Translator</t>
+  </si>
+  <si>
+    <t>UI/UX Engineer Intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business analyst Intern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinator </t>
+  </si>
+  <si>
+    <t>Planning coordinator</t>
+  </si>
+  <si>
+    <t>Project coordinator &amp; Site Engineer</t>
+  </si>
+  <si>
+    <t>accountant executive</t>
+  </si>
+  <si>
+    <t>executive</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BI364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D367" sqref="D367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1563,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1641,19 +1621,19 @@
         <v>30</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>32</v>
@@ -1671,19 +1651,19 @@
         <v>36</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>38</v>
@@ -1725,7 +1705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1736,7 +1716,7 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
         <v>54</v>
@@ -1910,7 +1890,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1921,7 +1901,7 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
@@ -2095,7 +2075,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2106,7 +2086,7 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
@@ -2277,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2459,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2641,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -2652,7 +2632,7 @@
         <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
         <v>59</v>
@@ -2823,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2834,7 +2814,7 @@
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
         <v>59</v>
@@ -3002,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3013,7 +2993,7 @@
         <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -3181,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3192,7 +3172,7 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
@@ -3363,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -3545,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3721,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3732,7 +3712,7 @@
         <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E13" t="s">
         <v>54</v>
@@ -3900,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -4082,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -4267,7 +4247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4452,7 +4432,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -4631,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -4810,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -4821,7 +4801,7 @@
         <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -4989,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -5165,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -5344,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -5523,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -5705,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -5887,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -6069,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -6080,7 +6060,7 @@
         <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E26" t="s">
         <v>67</v>
@@ -6248,7 +6228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -6430,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -6441,7 +6421,7 @@
         <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E28" t="s">
         <v>59</v>
@@ -6612,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -6623,7 +6603,7 @@
         <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
         <v>59</v>
@@ -6797,7 +6777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -6808,7 +6788,7 @@
         <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E30" t="s">
         <v>59</v>
@@ -6979,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -6990,7 +6970,7 @@
         <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
         <v>59</v>
@@ -7161,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -7172,7 +7152,7 @@
         <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E32" t="s">
         <v>67</v>
@@ -7346,7 +7326,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -7357,7 +7337,7 @@
         <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E33" t="s">
         <v>59</v>
@@ -7528,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -7539,7 +7519,7 @@
         <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E34" t="s">
         <v>59</v>
@@ -7710,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -7721,7 +7701,7 @@
         <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E35" t="s">
         <v>59</v>
@@ -7892,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -7903,7 +7883,7 @@
         <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E36" t="s">
         <v>59</v>
@@ -8074,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -8085,7 +8065,7 @@
         <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
         <v>59</v>
@@ -8259,7 +8239,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -8270,7 +8250,7 @@
         <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E38" t="s">
         <v>67</v>
@@ -8441,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -8452,7 +8432,7 @@
         <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>204</v>
+        <v>362</v>
       </c>
       <c r="E39" t="s">
         <v>59</v>
@@ -8623,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -8799,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -8810,7 +8790,7 @@
         <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
         <v>59</v>
@@ -8984,7 +8964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -8995,7 +8975,7 @@
         <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E42" t="s">
         <v>67</v>
@@ -9166,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -9345,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -9524,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -9703,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -9888,7 +9868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -10070,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -10249,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -10428,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -10607,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -10792,7 +10772,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -10977,7 +10957,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -10988,7 +10968,7 @@
         <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
         <v>59</v>
@@ -11159,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -11170,7 +11150,7 @@
         <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
         <v>59</v>
@@ -11338,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -11349,7 +11329,7 @@
         <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E55" t="s">
         <v>59</v>
@@ -11520,7 +11500,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -11696,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -11707,7 +11687,7 @@
         <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E57" t="s">
         <v>67</v>
@@ -11878,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -11889,7 +11869,7 @@
         <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E58" t="s">
         <v>67</v>
@@ -12063,7 +12043,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -12074,7 +12054,7 @@
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E59" t="s">
         <v>59</v>
@@ -12242,7 +12222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -12424,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -12609,7 +12589,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -12794,7 +12774,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -12805,7 +12785,7 @@
         <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E63" t="s">
         <v>59</v>
@@ -12973,7 +12953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -12984,7 +12964,7 @@
         <v>53</v>
       </c>
       <c r="D64" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E64" t="s">
         <v>59</v>
@@ -13152,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -13163,7 +13143,7 @@
         <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E65" t="s">
         <v>67</v>
@@ -13334,7 +13314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -13513,7 +13493,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -13524,7 +13504,7 @@
         <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E67" t="s">
         <v>59</v>
@@ -13695,7 +13675,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -13706,7 +13686,7 @@
         <v>53</v>
       </c>
       <c r="D68" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E68" t="s">
         <v>54</v>
@@ -13877,7 +13857,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -14059,7 +14039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -14070,7 +14050,7 @@
         <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E70" t="s">
         <v>59</v>
@@ -14241,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -14252,7 +14232,7 @@
         <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E71" t="s">
         <v>67</v>
@@ -14423,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -14605,7 +14585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -14787,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>65</v>
       </c>
@@ -14798,7 +14778,7 @@
         <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="E74" t="s">
         <v>59</v>
@@ -14966,7 +14946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -14977,7 +14957,7 @@
         <v>71</v>
       </c>
       <c r="D75" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E75" t="s">
         <v>67</v>
@@ -15145,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -15327,7 +15307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -15338,7 +15318,7 @@
         <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E77" t="s">
         <v>59</v>
@@ -15509,7 +15489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>65</v>
       </c>
@@ -15520,7 +15500,7 @@
         <v>53</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="E78" t="s">
         <v>69</v>
@@ -15691,7 +15671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -15873,7 +15853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -16058,7 +16038,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -16240,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -16425,7 +16405,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>51</v>
       </c>
@@ -16436,7 +16416,7 @@
         <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E83" t="s">
         <v>59</v>
@@ -16607,7 +16587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -16618,7 +16598,7 @@
         <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E84" t="s">
         <v>59</v>
@@ -16789,7 +16769,7 @@
         <v>0</v>
       </c>
       <c r="BI84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.3">
@@ -16803,7 +16783,7 @@
         <v>62</v>
       </c>
       <c r="D85" t="s">
-        <v>223</v>
+        <v>363</v>
       </c>
       <c r="E85" t="s">
         <v>59</v>
@@ -16971,7 +16951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -16982,7 +16962,7 @@
         <v>62</v>
       </c>
       <c r="D86" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E86" t="s">
         <v>59</v>
@@ -17153,7 +17133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>51</v>
       </c>
@@ -17164,7 +17144,7 @@
         <v>62</v>
       </c>
       <c r="D87" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E87" t="s">
         <v>59</v>
@@ -17338,7 +17318,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>51</v>
       </c>
@@ -17517,7 +17497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>51</v>
       </c>
@@ -17696,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>51</v>
       </c>
@@ -17707,7 +17687,7 @@
         <v>62</v>
       </c>
       <c r="D90" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E90" t="s">
         <v>59</v>
@@ -17875,7 +17855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>51</v>
       </c>
@@ -17886,7 +17866,7 @@
         <v>62</v>
       </c>
       <c r="D91" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E91" t="s">
         <v>59</v>
@@ -18060,7 +18040,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -18071,7 +18051,7 @@
         <v>53</v>
       </c>
       <c r="D92" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="E92" t="s">
         <v>69</v>
@@ -18242,7 +18222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>51</v>
       </c>
@@ -18253,7 +18233,7 @@
         <v>62</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E93" t="s">
         <v>59</v>
@@ -18421,7 +18401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>65</v>
       </c>
@@ -18432,7 +18412,7 @@
         <v>71</v>
       </c>
       <c r="D94" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E94" t="s">
         <v>54</v>
@@ -18603,7 +18583,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -18614,7 +18594,7 @@
         <v>71</v>
       </c>
       <c r="D95" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E95" t="s">
         <v>59</v>
@@ -18785,7 +18765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>65</v>
       </c>
@@ -18796,7 +18776,7 @@
         <v>71</v>
       </c>
       <c r="D96" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E96" t="s">
         <v>67</v>
@@ -18964,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -19143,7 +19123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>51</v>
       </c>
@@ -19325,7 +19305,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>65</v>
       </c>
@@ -19336,7 +19316,7 @@
         <v>71</v>
       </c>
       <c r="D99" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E99" t="s">
         <v>54</v>
@@ -19507,7 +19487,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>51</v>
       </c>
@@ -19518,7 +19498,7 @@
         <v>53</v>
       </c>
       <c r="D100" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E100" t="s">
         <v>59</v>
@@ -19689,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>51</v>
       </c>
@@ -19874,7 +19854,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -19885,7 +19865,7 @@
         <v>62</v>
       </c>
       <c r="D102" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E102" t="s">
         <v>67</v>
@@ -20056,7 +20036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -20067,7 +20047,7 @@
         <v>62</v>
       </c>
       <c r="D103" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E103" t="s">
         <v>67</v>
@@ -20238,7 +20218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -20249,7 +20229,7 @@
         <v>62</v>
       </c>
       <c r="D104" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E104" t="s">
         <v>59</v>
@@ -20420,7 +20400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -20431,7 +20411,7 @@
         <v>62</v>
       </c>
       <c r="D105" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E105" t="s">
         <v>59</v>
@@ -20605,7 +20585,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>51</v>
       </c>
@@ -20616,7 +20596,7 @@
         <v>62</v>
       </c>
       <c r="D106" t="s">
-        <v>237</v>
+        <v>340</v>
       </c>
       <c r="E106" t="s">
         <v>59</v>
@@ -20787,7 +20767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>51</v>
       </c>
@@ -20798,7 +20778,7 @@
         <v>62</v>
       </c>
       <c r="D107" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E107" t="s">
         <v>69</v>
@@ -20972,7 +20952,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>51</v>
       </c>
@@ -21154,7 +21134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>51</v>
       </c>
@@ -21336,7 +21316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>65</v>
       </c>
@@ -21518,7 +21498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>51</v>
       </c>
@@ -21529,7 +21509,7 @@
         <v>62</v>
       </c>
       <c r="D111" t="s">
-        <v>239</v>
+        <v>361</v>
       </c>
       <c r="E111" t="s">
         <v>59</v>
@@ -21700,7 +21680,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>51</v>
       </c>
@@ -21711,7 +21691,7 @@
         <v>62</v>
       </c>
       <c r="D112" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E112" t="s">
         <v>59</v>
@@ -21885,7 +21865,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>51</v>
       </c>
@@ -22067,7 +22047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -22252,7 +22232,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>51</v>
       </c>
@@ -22431,7 +22411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>65</v>
       </c>
@@ -22616,7 +22596,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>51</v>
       </c>
@@ -22801,7 +22781,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>65</v>
       </c>
@@ -22986,7 +22966,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>51</v>
       </c>
@@ -23168,7 +23148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>65</v>
       </c>
@@ -23350,7 +23330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>65</v>
       </c>
@@ -23532,7 +23512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -23717,7 +23697,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>51</v>
       </c>
@@ -23899,7 +23879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>51</v>
       </c>
@@ -24081,7 +24061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>51</v>
       </c>
@@ -24260,7 +24240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>51</v>
       </c>
@@ -24271,7 +24251,7 @@
         <v>62</v>
       </c>
       <c r="D126" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E126" t="s">
         <v>59</v>
@@ -24442,7 +24422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>65</v>
       </c>
@@ -24618,7 +24598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>65</v>
       </c>
@@ -24794,7 +24774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>65</v>
       </c>
@@ -24805,7 +24785,7 @@
         <v>71</v>
       </c>
       <c r="D129" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E129" t="s">
         <v>59</v>
@@ -24973,7 +24953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>51</v>
       </c>
@@ -25155,7 +25135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>51</v>
       </c>
@@ -25340,7 +25320,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="132" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>51</v>
       </c>
@@ -25519,7 +25499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>51</v>
       </c>
@@ -25701,7 +25681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>65</v>
       </c>
@@ -25877,7 +25857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>65</v>
       </c>
@@ -26056,7 +26036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>51</v>
       </c>
@@ -26067,7 +26047,7 @@
         <v>62</v>
       </c>
       <c r="D136" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E136" t="s">
         <v>59</v>
@@ -26238,7 +26218,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>51</v>
       </c>
@@ -26249,7 +26229,7 @@
         <v>62</v>
       </c>
       <c r="D137" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E137" t="s">
         <v>59</v>
@@ -26417,7 +26397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>51</v>
       </c>
@@ -26596,7 +26576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>65</v>
       </c>
@@ -26778,7 +26758,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="140" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>51</v>
       </c>
@@ -26960,7 +26940,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>51</v>
       </c>
@@ -27142,7 +27122,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="142" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>51</v>
       </c>
@@ -27324,7 +27304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>51</v>
       </c>
@@ -27335,7 +27315,7 @@
         <v>53</v>
       </c>
       <c r="D143" t="s">
-        <v>243</v>
+        <v>341</v>
       </c>
       <c r="E143" t="s">
         <v>59</v>
@@ -27506,7 +27486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>65</v>
       </c>
@@ -27517,7 +27497,7 @@
         <v>71</v>
       </c>
       <c r="D144" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E144" t="s">
         <v>54</v>
@@ -27688,7 +27668,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="145" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>51</v>
       </c>
@@ -27867,7 +27847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>51</v>
       </c>
@@ -27878,7 +27858,7 @@
         <v>62</v>
       </c>
       <c r="D146" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E146" t="s">
         <v>59</v>
@@ -28049,7 +28029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>51</v>
       </c>
@@ -28060,7 +28040,7 @@
         <v>71</v>
       </c>
       <c r="D147" t="s">
-        <v>246</v>
+        <v>342</v>
       </c>
       <c r="E147" t="s">
         <v>59</v>
@@ -28228,7 +28208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>51</v>
       </c>
@@ -28410,7 +28390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>51</v>
       </c>
@@ -28421,7 +28401,7 @@
         <v>62</v>
       </c>
       <c r="D149" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E149" t="s">
         <v>59</v>
@@ -28592,7 +28572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>51</v>
       </c>
@@ -28603,7 +28583,7 @@
         <v>53</v>
       </c>
       <c r="D150" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E150" t="s">
         <v>59</v>
@@ -28774,7 +28754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>51</v>
       </c>
@@ -28953,7 +28933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>51</v>
       </c>
@@ -29132,7 +29112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>51</v>
       </c>
@@ -29311,7 +29291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>51</v>
       </c>
@@ -29322,7 +29302,7 @@
         <v>62</v>
       </c>
       <c r="D154" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E154" t="s">
         <v>59</v>
@@ -29493,7 +29473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>51</v>
       </c>
@@ -29504,7 +29484,7 @@
         <v>53</v>
       </c>
       <c r="D155" t="s">
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="E155" t="s">
         <v>54</v>
@@ -29675,7 +29655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>65</v>
       </c>
@@ -29857,7 +29837,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>51</v>
       </c>
@@ -29868,7 +29848,7 @@
         <v>62</v>
       </c>
       <c r="D157" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E157" t="s">
         <v>59</v>
@@ -30042,7 +30022,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="158" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>65</v>
       </c>
@@ -30218,7 +30198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>51</v>
       </c>
@@ -30400,7 +30380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>51</v>
       </c>
@@ -30411,7 +30391,7 @@
         <v>62</v>
       </c>
       <c r="D160" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E160" t="s">
         <v>59</v>
@@ -30582,7 +30562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>51</v>
       </c>
@@ -30764,7 +30744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>65</v>
       </c>
@@ -30775,7 +30755,7 @@
         <v>71</v>
       </c>
       <c r="D162" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E162" t="s">
         <v>59</v>
@@ -30946,7 +30926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>65</v>
       </c>
@@ -30966,7 +30946,7 @@
         <v>72</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H163">
         <v>43200</v>
@@ -31128,7 +31108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>51</v>
       </c>
@@ -31310,7 +31290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>51</v>
       </c>
@@ -31492,7 +31472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>65</v>
       </c>
@@ -31674,7 +31654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>51</v>
       </c>
@@ -31685,7 +31665,7 @@
         <v>71</v>
       </c>
       <c r="D167" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E167" t="s">
         <v>59</v>
@@ -31856,7 +31836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>65</v>
       </c>
@@ -32038,7 +32018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>51</v>
       </c>
@@ -32049,7 +32029,7 @@
         <v>71</v>
       </c>
       <c r="D169" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="E169" t="s">
         <v>59</v>
@@ -32220,7 +32200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>51</v>
       </c>
@@ -32402,7 +32382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>51</v>
       </c>
@@ -32584,7 +32564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -32595,7 +32575,7 @@
         <v>53</v>
       </c>
       <c r="D172" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E172" t="s">
         <v>59</v>
@@ -32766,7 +32746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>51</v>
       </c>
@@ -32777,7 +32757,7 @@
         <v>62</v>
       </c>
       <c r="D173" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E173" t="s">
         <v>59</v>
@@ -32948,7 +32928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>51</v>
       </c>
@@ -32959,7 +32939,7 @@
         <v>71</v>
       </c>
       <c r="D174" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E174" t="s">
         <v>69</v>
@@ -33130,7 +33110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>51</v>
       </c>
@@ -33141,7 +33121,7 @@
         <v>62</v>
       </c>
       <c r="D175" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="E175" t="s">
         <v>59</v>
@@ -33312,7 +33292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>51</v>
       </c>
@@ -33323,7 +33303,7 @@
         <v>53</v>
       </c>
       <c r="D176" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E176" t="s">
         <v>54</v>
@@ -33494,7 +33474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>51</v>
       </c>
@@ -33505,7 +33485,7 @@
         <v>53</v>
       </c>
       <c r="D177" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E177" t="s">
         <v>59</v>
@@ -33673,7 +33653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>51</v>
       </c>
@@ -33684,7 +33664,7 @@
         <v>53</v>
       </c>
       <c r="D178" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E178" t="s">
         <v>59</v>
@@ -33855,7 +33835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>65</v>
       </c>
@@ -33866,7 +33846,7 @@
         <v>71</v>
       </c>
       <c r="D179" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E179" t="s">
         <v>59</v>
@@ -34034,7 +34014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>51</v>
       </c>
@@ -34216,7 +34196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>51</v>
       </c>
@@ -34227,7 +34207,7 @@
         <v>53</v>
       </c>
       <c r="D181" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E181" t="s">
         <v>59</v>
@@ -34398,7 +34378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>51</v>
       </c>
@@ -34580,7 +34560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>51</v>
       </c>
@@ -34591,7 +34571,7 @@
         <v>62</v>
       </c>
       <c r="D183" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E183" t="s">
         <v>59</v>
@@ -34762,7 +34742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>51</v>
       </c>
@@ -34944,7 +34924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>51</v>
       </c>
@@ -34955,7 +34935,7 @@
         <v>62</v>
       </c>
       <c r="D185" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E185" t="s">
         <v>59</v>
@@ -35126,7 +35106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>51</v>
       </c>
@@ -35308,7 +35288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>51</v>
       </c>
@@ -35319,7 +35299,7 @@
         <v>53</v>
       </c>
       <c r="D187" t="s">
-        <v>264</v>
+        <v>353</v>
       </c>
       <c r="E187" t="s">
         <v>59</v>
@@ -35490,7 +35470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>51</v>
       </c>
@@ -35501,7 +35481,7 @@
         <v>62</v>
       </c>
       <c r="D188" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="E188" t="s">
         <v>54</v>
@@ -35672,7 +35652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>51</v>
       </c>
@@ -35683,7 +35663,7 @@
         <v>62</v>
       </c>
       <c r="D189" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E189" t="s">
         <v>59</v>
@@ -35854,7 +35834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>51</v>
       </c>
@@ -35865,7 +35845,7 @@
         <v>62</v>
       </c>
       <c r="D190" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="E190" t="s">
         <v>59</v>
@@ -36036,7 +36016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>51</v>
       </c>
@@ -36047,7 +36027,7 @@
         <v>62</v>
       </c>
       <c r="D191" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E191" t="s">
         <v>59</v>
@@ -36218,7 +36198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>51</v>
       </c>
@@ -36400,7 +36380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>51</v>
       </c>
@@ -36582,7 +36562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>65</v>
       </c>
@@ -36593,7 +36573,7 @@
         <v>71</v>
       </c>
       <c r="D194" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E194" t="s">
         <v>69</v>
@@ -36764,7 +36744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>65</v>
       </c>
@@ -36775,7 +36755,7 @@
         <v>71</v>
       </c>
       <c r="D195" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E195" t="s">
         <v>69</v>
@@ -36946,7 +36926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>51</v>
       </c>
@@ -36957,7 +36937,7 @@
         <v>62</v>
       </c>
       <c r="D196" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="E196" t="s">
         <v>59</v>
@@ -37125,7 +37105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>65</v>
       </c>
@@ -37136,7 +37116,7 @@
         <v>71</v>
       </c>
       <c r="D197" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="E197" t="s">
         <v>59</v>
@@ -37307,7 +37287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>65</v>
       </c>
@@ -37318,7 +37298,7 @@
         <v>71</v>
       </c>
       <c r="D198" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E198" t="s">
         <v>59</v>
@@ -37489,7 +37469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>51</v>
       </c>
@@ -37500,7 +37480,7 @@
         <v>62</v>
       </c>
       <c r="D199" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E199" t="s">
         <v>59</v>
@@ -37668,7 +37648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>65</v>
       </c>
@@ -37679,7 +37659,7 @@
         <v>53</v>
       </c>
       <c r="D200" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E200" t="s">
         <v>54</v>
@@ -37844,7 +37824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>51</v>
       </c>
@@ -37855,7 +37835,7 @@
         <v>53</v>
       </c>
       <c r="D201" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E201" t="s">
         <v>59</v>
@@ -38023,7 +38003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>51</v>
       </c>
@@ -38034,7 +38014,7 @@
         <v>62</v>
       </c>
       <c r="D202" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E202" t="s">
         <v>59</v>
@@ -38199,7 +38179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>51</v>
       </c>
@@ -38381,7 +38361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>51</v>
       </c>
@@ -38392,7 +38372,7 @@
         <v>62</v>
       </c>
       <c r="D204" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
       <c r="E204" t="s">
         <v>59</v>
@@ -38563,7 +38543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>51</v>
       </c>
@@ -38574,7 +38554,7 @@
         <v>62</v>
       </c>
       <c r="D205" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E205" t="s">
         <v>59</v>
@@ -38745,7 +38725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>51</v>
       </c>
@@ -38756,7 +38736,7 @@
         <v>53</v>
       </c>
       <c r="D206" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="E206" t="s">
         <v>67</v>
@@ -38927,7 +38907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -38938,7 +38918,7 @@
         <v>53</v>
       </c>
       <c r="D207" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="E207" t="s">
         <v>59</v>
@@ -39109,7 +39089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -39120,7 +39100,7 @@
         <v>53</v>
       </c>
       <c r="D208" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="E208" t="s">
         <v>59</v>
@@ -39291,7 +39271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>51</v>
       </c>
@@ -39302,7 +39282,7 @@
         <v>53</v>
       </c>
       <c r="D209" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E209" t="s">
         <v>59</v>
@@ -39473,7 +39453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>51</v>
       </c>
@@ -39484,7 +39464,7 @@
         <v>62</v>
       </c>
       <c r="D210" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="E210" t="s">
         <v>59</v>
@@ -39652,7 +39632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>51</v>
       </c>
@@ -39663,7 +39643,7 @@
         <v>62</v>
       </c>
       <c r="D211" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E211" t="s">
         <v>59</v>
@@ -39834,7 +39814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>51</v>
       </c>
@@ -40013,7 +39993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>51</v>
       </c>
@@ -40195,7 +40175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>51</v>
       </c>
@@ -40206,7 +40186,7 @@
         <v>62</v>
       </c>
       <c r="D214" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E214" t="s">
         <v>59</v>
@@ -40374,7 +40354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>51</v>
       </c>
@@ -40556,7 +40536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>51</v>
       </c>
@@ -40567,7 +40547,7 @@
         <v>62</v>
       </c>
       <c r="D216" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="E216" t="s">
         <v>54</v>
@@ -40732,7 +40712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>51</v>
       </c>
@@ -40743,7 +40723,7 @@
         <v>62</v>
       </c>
       <c r="D217" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="E217" t="s">
         <v>59</v>
@@ -40911,7 +40891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>51</v>
       </c>
@@ -40922,7 +40902,7 @@
         <v>62</v>
       </c>
       <c r="D218" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="E218" t="s">
         <v>59</v>
@@ -41093,7 +41073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>51</v>
       </c>
@@ -41275,7 +41255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>51</v>
       </c>
@@ -41286,7 +41266,7 @@
         <v>71</v>
       </c>
       <c r="D220" t="s">
-        <v>286</v>
+        <v>355</v>
       </c>
       <c r="E220" t="s">
         <v>59</v>
@@ -41457,7 +41437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>51</v>
       </c>
@@ -41468,7 +41448,7 @@
         <v>71</v>
       </c>
       <c r="D221" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E221" t="s">
         <v>59</v>
@@ -41639,7 +41619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>65</v>
       </c>
@@ -41650,7 +41630,7 @@
         <v>71</v>
       </c>
       <c r="D222" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="E222" t="s">
         <v>59</v>
@@ -41821,7 +41801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>51</v>
       </c>
@@ -42000,7 +41980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>65</v>
       </c>
@@ -42182,7 +42162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>51</v>
       </c>
@@ -42364,7 +42344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>51</v>
       </c>
@@ -42546,7 +42526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>51</v>
       </c>
@@ -42728,7 +42708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>51</v>
       </c>
@@ -42910,7 +42890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>65</v>
       </c>
@@ -43086,7 +43066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>51</v>
       </c>
@@ -43097,7 +43077,7 @@
         <v>53</v>
       </c>
       <c r="D230" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E230" t="s">
         <v>59</v>
@@ -43268,7 +43248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>65</v>
       </c>
@@ -43450,7 +43430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>65</v>
       </c>
@@ -43461,7 +43441,7 @@
         <v>75</v>
       </c>
       <c r="D232" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="E232" t="s">
         <v>67</v>
@@ -43632,7 +43612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>51</v>
       </c>
@@ -43643,7 +43623,7 @@
         <v>53</v>
       </c>
       <c r="D233" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E233" t="s">
         <v>59</v>
@@ -43811,7 +43791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>51</v>
       </c>
@@ -43822,7 +43802,7 @@
         <v>71</v>
       </c>
       <c r="D234" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="E234" t="s">
         <v>54</v>
@@ -43993,7 +43973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>51</v>
       </c>
@@ -44004,7 +43984,7 @@
         <v>53</v>
       </c>
       <c r="D235" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="E235" t="s">
         <v>59</v>
@@ -44175,7 +44155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>51</v>
       </c>
@@ -44357,7 +44337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>65</v>
       </c>
@@ -44368,7 +44348,7 @@
         <v>53</v>
       </c>
       <c r="D237" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E237" t="s">
         <v>59</v>
@@ -44539,7 +44519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>51</v>
       </c>
@@ -44718,7 +44698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>65</v>
       </c>
@@ -44900,7 +44880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>51</v>
       </c>
@@ -45079,7 +45059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>51</v>
       </c>
@@ -45090,7 +45070,7 @@
         <v>71</v>
       </c>
       <c r="D241" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="E241" t="s">
         <v>59</v>
@@ -45258,7 +45238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>51</v>
       </c>
@@ -45269,7 +45249,7 @@
         <v>71</v>
       </c>
       <c r="D242" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="E242" t="s">
         <v>59</v>
@@ -45440,7 +45420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>51</v>
       </c>
@@ -45451,7 +45431,7 @@
         <v>53</v>
       </c>
       <c r="D243" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E243" t="s">
         <v>59</v>
@@ -45622,7 +45602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>51</v>
       </c>
@@ -45801,7 +45781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>51</v>
       </c>
@@ -45812,7 +45792,7 @@
         <v>62</v>
       </c>
       <c r="D245" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="E245" t="s">
         <v>59</v>
@@ -45983,7 +45963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>65</v>
       </c>
@@ -46165,7 +46145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>51</v>
       </c>
@@ -46347,7 +46327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>65</v>
       </c>
@@ -46529,7 +46509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>65</v>
       </c>
@@ -46540,7 +46520,7 @@
         <v>75</v>
       </c>
       <c r="D249" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="E249" t="s">
         <v>59</v>
@@ -46711,7 +46691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>65</v>
       </c>
@@ -46722,7 +46702,7 @@
         <v>71</v>
       </c>
       <c r="D250" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="E250" t="s">
         <v>54</v>
@@ -46893,7 +46873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>51</v>
       </c>
@@ -47075,7 +47055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>51</v>
       </c>
@@ -47086,7 +47066,7 @@
         <v>53</v>
       </c>
       <c r="D252" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="E252" t="s">
         <v>59</v>
@@ -47254,7 +47234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>65</v>
       </c>
@@ -47436,7 +47416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>51</v>
       </c>
@@ -47447,7 +47427,7 @@
         <v>62</v>
       </c>
       <c r="D254" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E254" t="s">
         <v>59</v>
@@ -47618,7 +47598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>51</v>
       </c>
@@ -47629,7 +47609,7 @@
         <v>62</v>
       </c>
       <c r="D255" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="E255" t="s">
         <v>59</v>
@@ -47800,7 +47780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>65</v>
       </c>
@@ -47811,7 +47791,7 @@
         <v>71</v>
       </c>
       <c r="D256" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="E256" t="s">
         <v>59</v>
@@ -47982,7 +47962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>51</v>
       </c>
@@ -47993,7 +47973,7 @@
         <v>71</v>
       </c>
       <c r="D257" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="E257" t="s">
         <v>59</v>
@@ -48164,7 +48144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>65</v>
       </c>
@@ -48175,7 +48155,7 @@
         <v>71</v>
       </c>
       <c r="D258" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E258" t="s">
         <v>59</v>
@@ -48346,7 +48326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>65</v>
       </c>
@@ -48357,7 +48337,7 @@
         <v>75</v>
       </c>
       <c r="D259" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="E259" t="s">
         <v>59</v>
@@ -48528,7 +48508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>65</v>
       </c>
@@ -48539,7 +48519,7 @@
         <v>71</v>
       </c>
       <c r="D260" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="E260" t="s">
         <v>59</v>
@@ -48710,7 +48690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>51</v>
       </c>
@@ -48721,7 +48701,7 @@
         <v>62</v>
       </c>
       <c r="D261" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="E261" t="s">
         <v>59</v>
@@ -48889,7 +48869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>51</v>
       </c>
@@ -48900,7 +48880,7 @@
         <v>53</v>
       </c>
       <c r="D262" t="s">
-        <v>136</v>
+        <v>348</v>
       </c>
       <c r="E262" t="s">
         <v>59</v>
@@ -49068,7 +49048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>51</v>
       </c>
@@ -49079,7 +49059,7 @@
         <v>62</v>
       </c>
       <c r="D263" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E263" t="s">
         <v>59</v>
@@ -49247,7 +49227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>51</v>
       </c>
@@ -49258,7 +49238,7 @@
         <v>62</v>
       </c>
       <c r="D264" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="E264" t="s">
         <v>59</v>
@@ -49426,7 +49406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>51</v>
       </c>
@@ -49437,7 +49417,7 @@
         <v>71</v>
       </c>
       <c r="D265" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="E265" t="s">
         <v>59</v>
@@ -49608,7 +49588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>51</v>
       </c>
@@ -49619,7 +49599,7 @@
         <v>62</v>
       </c>
       <c r="D266" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="E266" t="s">
         <v>67</v>
@@ -49790,7 +49770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>51</v>
       </c>
@@ -49801,7 +49781,7 @@
         <v>62</v>
       </c>
       <c r="D267" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="E267" t="s">
         <v>59</v>
@@ -49969,7 +49949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>51</v>
       </c>
@@ -50151,7 +50131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>51</v>
       </c>
@@ -50162,7 +50142,7 @@
         <v>71</v>
       </c>
       <c r="D269" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="E269" t="s">
         <v>59</v>
@@ -50333,7 +50313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>65</v>
       </c>
@@ -50344,7 +50324,7 @@
         <v>75</v>
       </c>
       <c r="D270" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E270" t="s">
         <v>59</v>
@@ -50515,7 +50495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>51</v>
       </c>
@@ -50526,7 +50506,7 @@
         <v>62</v>
       </c>
       <c r="D271" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="E271" t="s">
         <v>67</v>
@@ -50697,7 +50677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>51</v>
       </c>
@@ -50708,7 +50688,7 @@
         <v>71</v>
       </c>
       <c r="D272" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E272" t="s">
         <v>67</v>
@@ -50879,7 +50859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>51</v>
       </c>
@@ -50890,7 +50870,7 @@
         <v>71</v>
       </c>
       <c r="D273" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E273" t="s">
         <v>69</v>
@@ -51058,7 +51038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>65</v>
       </c>
@@ -51069,7 +51049,7 @@
         <v>71</v>
       </c>
       <c r="D274" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="E274" t="s">
         <v>59</v>
@@ -51240,7 +51220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>51</v>
       </c>
@@ -51251,7 +51231,7 @@
         <v>53</v>
       </c>
       <c r="D275" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="E275" t="s">
         <v>59</v>
@@ -51422,7 +51402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>65</v>
       </c>
@@ -51433,7 +51413,7 @@
         <v>71</v>
       </c>
       <c r="D276" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E276" t="s">
         <v>54</v>
@@ -51604,7 +51584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>51</v>
       </c>
@@ -51615,7 +51595,7 @@
         <v>62</v>
       </c>
       <c r="D277" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="E277" t="s">
         <v>59</v>
@@ -51780,7 +51760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>51</v>
       </c>
@@ -51962,7 +51942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>65</v>
       </c>
@@ -52141,7 +52121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>51</v>
       </c>
@@ -52152,7 +52132,7 @@
         <v>62</v>
       </c>
       <c r="D280" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E280" t="s">
         <v>59</v>
@@ -52320,7 +52300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>51</v>
       </c>
@@ -52331,7 +52311,7 @@
         <v>53</v>
       </c>
       <c r="D281" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="E281" t="s">
         <v>59</v>
@@ -52499,7 +52479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>65</v>
       </c>
@@ -52681,7 +52661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>65</v>
       </c>
@@ -52692,7 +52672,7 @@
         <v>71</v>
       </c>
       <c r="D283" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E283" t="s">
         <v>69</v>
@@ -52863,7 +52843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>51</v>
       </c>
@@ -53045,7 +53025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>65</v>
       </c>
@@ -53227,7 +53207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>51</v>
       </c>
@@ -53238,7 +53218,7 @@
         <v>53</v>
       </c>
       <c r="D286" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E286" t="s">
         <v>59</v>
@@ -53409,7 +53389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>51</v>
       </c>
@@ -53420,7 +53400,7 @@
         <v>53</v>
       </c>
       <c r="D287" t="s">
-        <v>141</v>
+        <v>357</v>
       </c>
       <c r="E287" t="s">
         <v>67</v>
@@ -53591,7 +53571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:60" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>51</v>
       </c>
@@ -53602,7 +53582,7 @@
         <v>53</v>
       </c>
       <c r="D288" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="E288" t="s">
         <v>54</v>
@@ -53773,7 +53753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>51</v>
       </c>
@@ -53784,7 +53764,7 @@
         <v>53</v>
       </c>
       <c r="D289" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="E289" t="s">
         <v>59</v>
@@ -53934,7 +53914,7 @@
         <v>56</v>
       </c>
       <c r="BB289" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC289">
         <v>0</v>
@@ -53955,7 +53935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>51</v>
       </c>
@@ -53966,7 +53946,7 @@
         <v>53</v>
       </c>
       <c r="D290" t="s">
-        <v>319</v>
+        <v>116</v>
       </c>
       <c r="E290" t="s">
         <v>59</v>
@@ -54116,7 +54096,7 @@
         <v>60</v>
       </c>
       <c r="BB290" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC290">
         <v>1</v>
@@ -54137,7 +54117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>65</v>
       </c>
@@ -54319,7 +54299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>51</v>
       </c>
@@ -54330,7 +54310,7 @@
         <v>71</v>
       </c>
       <c r="D292" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E292" t="s">
         <v>59</v>
@@ -54477,7 +54457,7 @@
         <v>0</v>
       </c>
       <c r="BA292" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BB292" t="s">
         <v>60</v>
@@ -54501,7 +54481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>51</v>
       </c>
@@ -54512,7 +54492,7 @@
         <v>71</v>
       </c>
       <c r="D293" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="E293" t="s">
         <v>54</v>
@@ -54659,7 +54639,7 @@
         <v>60</v>
       </c>
       <c r="BB293" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC293">
         <v>1</v>
@@ -54680,10 +54660,10 @@
         <v>1</v>
       </c>
       <c r="BI293" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="294" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>65</v>
       </c>
@@ -54694,7 +54674,7 @@
         <v>53</v>
       </c>
       <c r="D294" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="E294" t="s">
         <v>59</v>
@@ -54865,10 +54845,10 @@
         <v>0</v>
       </c>
       <c r="BI294" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="295" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>51</v>
       </c>
@@ -54879,7 +54859,7 @@
         <v>53</v>
       </c>
       <c r="D295" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="E295" t="s">
         <v>54</v>
@@ -55050,7 +55030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>51</v>
       </c>
@@ -55061,7 +55041,7 @@
         <v>53</v>
       </c>
       <c r="D296" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="E296" t="s">
         <v>59</v>
@@ -55229,7 +55209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>51</v>
       </c>
@@ -55240,7 +55220,7 @@
         <v>53</v>
       </c>
       <c r="D297" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="E297" t="s">
         <v>69</v>
@@ -55408,10 +55388,10 @@
         <v>0</v>
       </c>
       <c r="BI297" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="298" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>51</v>
       </c>
@@ -55422,7 +55402,7 @@
         <v>53</v>
       </c>
       <c r="D298" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="E298" t="s">
         <v>59</v>
@@ -55590,10 +55570,10 @@
         <v>0</v>
       </c>
       <c r="BI298" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="299" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>51</v>
       </c>
@@ -55604,7 +55584,7 @@
         <v>53</v>
       </c>
       <c r="D299" t="s">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="E299" t="s">
         <v>67</v>
@@ -55751,10 +55731,10 @@
         <v>0</v>
       </c>
       <c r="BA299" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BB299" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC299">
         <v>1</v>
@@ -55775,7 +55755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>51</v>
       </c>
@@ -55786,7 +55766,7 @@
         <v>53</v>
       </c>
       <c r="D300" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="E300" t="s">
         <v>67</v>
@@ -55954,10 +55934,10 @@
         <v>0</v>
       </c>
       <c r="BI300" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="301" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>51</v>
       </c>
@@ -55968,7 +55948,7 @@
         <v>53</v>
       </c>
       <c r="D301" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="E301" t="s">
         <v>59</v>
@@ -56139,7 +56119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>51</v>
       </c>
@@ -56150,7 +56130,7 @@
         <v>53</v>
       </c>
       <c r="D302" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="E302" t="s">
         <v>59</v>
@@ -56321,7 +56301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>65</v>
       </c>
@@ -56332,7 +56312,7 @@
         <v>71</v>
       </c>
       <c r="D303" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E303" t="s">
         <v>59</v>
@@ -56482,7 +56462,7 @@
         <v>60</v>
       </c>
       <c r="BB303" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC303">
         <v>0</v>
@@ -56503,7 +56483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>51</v>
       </c>
@@ -56514,7 +56494,7 @@
         <v>53</v>
       </c>
       <c r="D304" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="E304" t="s">
         <v>67</v>
@@ -56685,7 +56665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>51</v>
       </c>
@@ -56696,7 +56676,7 @@
         <v>71</v>
       </c>
       <c r="D305" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="E305" t="s">
         <v>59</v>
@@ -56867,7 +56847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>51</v>
       </c>
@@ -56878,7 +56858,7 @@
         <v>53</v>
       </c>
       <c r="D306" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="E306" t="s">
         <v>67</v>
@@ -57049,7 +57029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>65</v>
       </c>
@@ -57060,7 +57040,7 @@
         <v>71</v>
       </c>
       <c r="D307" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="E307" t="s">
         <v>59</v>
@@ -57231,7 +57211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>51</v>
       </c>
@@ -57242,7 +57222,7 @@
         <v>71</v>
       </c>
       <c r="D308" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="E308" t="s">
         <v>59</v>
@@ -57413,10 +57393,10 @@
         <v>0</v>
       </c>
       <c r="BI308" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="309" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>65</v>
       </c>
@@ -57427,7 +57407,7 @@
         <v>71</v>
       </c>
       <c r="D309" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E309" t="s">
         <v>59</v>
@@ -57595,7 +57575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>65</v>
       </c>
@@ -57777,7 +57757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>65</v>
       </c>
@@ -57959,7 +57939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>51</v>
       </c>
@@ -57970,7 +57950,7 @@
         <v>53</v>
       </c>
       <c r="D312" t="s">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="E312" t="s">
         <v>59</v>
@@ -58141,7 +58121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>51</v>
       </c>
@@ -58152,7 +58132,7 @@
         <v>53</v>
       </c>
       <c r="D313" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="E313" t="s">
         <v>54</v>
@@ -58317,7 +58297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>51</v>
       </c>
@@ -58328,7 +58308,7 @@
         <v>53</v>
       </c>
       <c r="D314" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="E314" t="s">
         <v>59</v>
@@ -58499,7 +58479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>51</v>
       </c>
@@ -58510,7 +58490,7 @@
         <v>53</v>
       </c>
       <c r="D315" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E315" t="s">
         <v>67</v>
@@ -58678,7 +58658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>51</v>
       </c>
@@ -58689,7 +58669,7 @@
         <v>71</v>
       </c>
       <c r="D316" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E316" t="s">
         <v>59</v>
@@ -58860,7 +58840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>65</v>
       </c>
@@ -58871,7 +58851,7 @@
         <v>71</v>
       </c>
       <c r="D317" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="E317" t="s">
         <v>59</v>
@@ -59015,10 +58995,10 @@
         <v>0</v>
       </c>
       <c r="BA317" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BB317" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC317">
         <v>1</v>
@@ -59039,7 +59019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>65</v>
       </c>
@@ -59050,7 +59030,7 @@
         <v>71</v>
       </c>
       <c r="D318" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="E318" t="s">
         <v>59</v>
@@ -59218,10 +59198,10 @@
         <v>0</v>
       </c>
       <c r="BI318" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="319" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>51</v>
       </c>
@@ -59232,7 +59212,7 @@
         <v>53</v>
       </c>
       <c r="D319" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="E319" t="s">
         <v>59</v>
@@ -59403,7 +59383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>65</v>
       </c>
@@ -59414,7 +59394,7 @@
         <v>71</v>
       </c>
       <c r="D320" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="E320" t="s">
         <v>59</v>
@@ -59582,10 +59562,10 @@
         <v>0</v>
       </c>
       <c r="BI320" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="321" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>51</v>
       </c>
@@ -59596,7 +59576,7 @@
         <v>53</v>
       </c>
       <c r="D321" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="E321" t="s">
         <v>59</v>
@@ -59764,7 +59744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>51</v>
       </c>
@@ -59775,7 +59755,7 @@
         <v>53</v>
       </c>
       <c r="D322" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="E322" t="s">
         <v>59</v>
@@ -59943,7 +59923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>65</v>
       </c>
@@ -59954,7 +59934,7 @@
         <v>71</v>
       </c>
       <c r="D323" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="E323" t="s">
         <v>54</v>
@@ -60101,7 +60081,7 @@
         <v>60</v>
       </c>
       <c r="BB323" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC323">
         <v>1</v>
@@ -60122,10 +60102,10 @@
         <v>1</v>
       </c>
       <c r="BI323" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="324" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>51</v>
       </c>
@@ -60136,7 +60116,7 @@
         <v>53</v>
       </c>
       <c r="D324" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E324" t="s">
         <v>59</v>
@@ -60307,7 +60287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>51</v>
       </c>
@@ -60318,7 +60298,7 @@
         <v>53</v>
       </c>
       <c r="D325" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="E325" t="s">
         <v>54</v>
@@ -60489,7 +60469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>65</v>
       </c>
@@ -60500,7 +60480,7 @@
         <v>71</v>
       </c>
       <c r="D326" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="E326" t="s">
         <v>59</v>
@@ -60647,10 +60627,10 @@
         <v>0</v>
       </c>
       <c r="BA326" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BB326" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC326">
         <v>1</v>
@@ -60671,7 +60651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>51</v>
       </c>
@@ -60682,7 +60662,7 @@
         <v>53</v>
       </c>
       <c r="D327" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="E327" t="s">
         <v>59</v>
@@ -60829,10 +60809,10 @@
         <v>0</v>
       </c>
       <c r="BA327" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BB327" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC327">
         <v>1</v>
@@ -60853,7 +60833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>51</v>
       </c>
@@ -60864,7 +60844,7 @@
         <v>53</v>
       </c>
       <c r="D328" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="E328" t="s">
         <v>59</v>
@@ -61011,10 +60991,10 @@
         <v>0</v>
       </c>
       <c r="BA328" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BB328" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC328">
         <v>1</v>
@@ -61035,7 +61015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>51</v>
       </c>
@@ -61046,7 +61026,7 @@
         <v>71</v>
       </c>
       <c r="D329" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="E329" t="s">
         <v>59</v>
@@ -61193,10 +61173,10 @@
         <v>0</v>
       </c>
       <c r="BA329" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BB329" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC329">
         <v>1</v>
@@ -61217,10 +61197,10 @@
         <v>1</v>
       </c>
       <c r="BI329" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="330" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>51</v>
       </c>
@@ -61231,7 +61211,7 @@
         <v>53</v>
       </c>
       <c r="D330" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="E330" t="s">
         <v>59</v>
@@ -61399,10 +61379,10 @@
         <v>0</v>
       </c>
       <c r="BI330" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="331" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>51</v>
       </c>
@@ -61413,7 +61393,7 @@
         <v>71</v>
       </c>
       <c r="D331" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="E331" t="s">
         <v>67</v>
@@ -61584,10 +61564,10 @@
         <v>0</v>
       </c>
       <c r="BI331" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="332" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>51</v>
       </c>
@@ -61598,7 +61578,7 @@
         <v>53</v>
       </c>
       <c r="D332" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E332" t="s">
         <v>59</v>
@@ -61769,7 +61749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>65</v>
       </c>
@@ -61780,7 +61760,7 @@
         <v>75</v>
       </c>
       <c r="D333" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E333" t="s">
         <v>67</v>
@@ -61951,7 +61931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>65</v>
       </c>
@@ -61962,7 +61942,7 @@
         <v>71</v>
       </c>
       <c r="D334" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="E334" t="s">
         <v>54</v>
@@ -62127,7 +62107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>65</v>
       </c>
@@ -62138,7 +62118,7 @@
         <v>71</v>
       </c>
       <c r="D335" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E335" t="s">
         <v>59</v>
@@ -62309,10 +62289,10 @@
         <v>0</v>
       </c>
       <c r="BI335" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="336" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>65</v>
       </c>
@@ -62323,7 +62303,7 @@
         <v>53</v>
       </c>
       <c r="D336" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E336" t="s">
         <v>59</v>
@@ -62494,10 +62474,10 @@
         <v>0</v>
       </c>
       <c r="BI336" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="337" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>65</v>
       </c>
@@ -62508,7 +62488,7 @@
         <v>71</v>
       </c>
       <c r="D337" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="E337" t="s">
         <v>59</v>
@@ -62679,7 +62659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>65</v>
       </c>
@@ -62690,7 +62670,7 @@
         <v>71</v>
       </c>
       <c r="D338" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="E338" t="s">
         <v>69</v>
@@ -62861,7 +62841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>65</v>
       </c>
@@ -62872,7 +62852,7 @@
         <v>71</v>
       </c>
       <c r="D339" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="E339" t="s">
         <v>59</v>
@@ -63040,10 +63020,10 @@
         <v>0</v>
       </c>
       <c r="BI339" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="340" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>51</v>
       </c>
@@ -63054,7 +63034,7 @@
         <v>53</v>
       </c>
       <c r="D340" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="E340" t="s">
         <v>59</v>
@@ -63225,7 +63205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>51</v>
       </c>
@@ -63236,7 +63216,7 @@
         <v>53</v>
       </c>
       <c r="D341" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="E341" t="s">
         <v>59</v>
@@ -63407,7 +63387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>65</v>
       </c>
@@ -63583,7 +63563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>51</v>
       </c>
@@ -63594,7 +63574,7 @@
         <v>53</v>
       </c>
       <c r="D343" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="E343" t="s">
         <v>54</v>
@@ -63759,7 +63739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>65</v>
       </c>
@@ -63770,7 +63750,7 @@
         <v>71</v>
       </c>
       <c r="D344" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="E344" t="s">
         <v>59</v>
@@ -63941,7 +63921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>65</v>
       </c>
@@ -63952,7 +63932,7 @@
         <v>71</v>
       </c>
       <c r="D345" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="E345" t="s">
         <v>59</v>
@@ -64099,7 +64079,7 @@
         <v>60</v>
       </c>
       <c r="BB345" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC345">
         <v>1</v>
@@ -64120,10 +64100,10 @@
         <v>0</v>
       </c>
       <c r="BI345" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="346" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>51</v>
       </c>
@@ -64134,7 +64114,7 @@
         <v>53</v>
       </c>
       <c r="D346" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="E346" t="s">
         <v>59</v>
@@ -64305,10 +64285,10 @@
         <v>1</v>
       </c>
       <c r="BI346" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="347" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>51</v>
       </c>
@@ -64490,10 +64470,10 @@
         <v>0</v>
       </c>
       <c r="BI347" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="348" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>65</v>
       </c>
@@ -64504,7 +64484,7 @@
         <v>71</v>
       </c>
       <c r="D348" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="E348" t="s">
         <v>59</v>
@@ -64675,7 +64655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>51</v>
       </c>
@@ -64857,7 +64837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>51</v>
       </c>
@@ -65039,7 +65019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>65</v>
       </c>
@@ -65197,7 +65177,7 @@
         <v>0</v>
       </c>
       <c r="BA351" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BB351" t="s">
         <v>60</v>
@@ -65221,10 +65201,10 @@
         <v>0</v>
       </c>
       <c r="BI351" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="352" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>65</v>
       </c>
@@ -65235,7 +65215,7 @@
         <v>71</v>
       </c>
       <c r="D352" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="E352" t="s">
         <v>59</v>
@@ -65376,10 +65356,10 @@
         <v>0</v>
       </c>
       <c r="BA352" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BB352" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC352">
         <v>0</v>
@@ -65400,7 +65380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>51</v>
       </c>
@@ -65411,7 +65391,7 @@
         <v>71</v>
       </c>
       <c r="D353" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="E353" t="s">
         <v>54</v>
@@ -65561,7 +65541,7 @@
         <v>60</v>
       </c>
       <c r="BB353" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC353">
         <v>0</v>
@@ -65582,10 +65562,10 @@
         <v>0</v>
       </c>
       <c r="BI353" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="354" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>65</v>
       </c>
@@ -65596,7 +65576,7 @@
         <v>71</v>
       </c>
       <c r="D354" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="E354" t="s">
         <v>59</v>
@@ -65764,10 +65744,10 @@
         <v>0</v>
       </c>
       <c r="BI354" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="355" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>51</v>
       </c>
@@ -65778,7 +65758,7 @@
         <v>71</v>
       </c>
       <c r="D355" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="E355" t="s">
         <v>59</v>
@@ -65949,7 +65929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>65</v>
       </c>
@@ -65960,7 +65940,7 @@
         <v>71</v>
       </c>
       <c r="D356" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="E356" t="s">
         <v>59</v>
@@ -66128,10 +66108,10 @@
         <v>0</v>
       </c>
       <c r="BI356" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="357" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>65</v>
       </c>
@@ -66142,7 +66122,7 @@
         <v>75</v>
       </c>
       <c r="D357" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="E357" t="s">
         <v>54</v>
@@ -66292,7 +66272,7 @@
         <v>60</v>
       </c>
       <c r="BB357" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC357">
         <v>1</v>
@@ -66313,7 +66293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>65</v>
       </c>
@@ -66324,7 +66304,7 @@
         <v>71</v>
       </c>
       <c r="D358" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="E358" t="s">
         <v>59</v>
@@ -66495,10 +66475,10 @@
         <v>0</v>
       </c>
       <c r="BI358" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="359" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>51</v>
       </c>
@@ -66680,10 +66660,10 @@
         <v>0</v>
       </c>
       <c r="BI359" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="360" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>65</v>
       </c>
@@ -66694,7 +66674,7 @@
         <v>75</v>
       </c>
       <c r="D360" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="E360" t="s">
         <v>69</v>
@@ -66865,10 +66845,10 @@
         <v>1</v>
       </c>
       <c r="BI360" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="361" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>65</v>
       </c>
@@ -67029,7 +67009,7 @@
         <v>60</v>
       </c>
       <c r="BB361" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC361">
         <v>1</v>
@@ -67050,7 +67030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>65</v>
       </c>
@@ -67211,7 +67191,7 @@
         <v>60</v>
       </c>
       <c r="BB362" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BC362">
         <v>1</v>
@@ -67232,10 +67212,10 @@
         <v>1</v>
       </c>
       <c r="BI362" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="363" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>65</v>
       </c>
@@ -67417,7 +67397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:61" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>65</v>
       </c>
@@ -67600,7 +67580,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BI364" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BI364" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Excutive"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>